--- a/resource/salarybyzip.xlsx
+++ b/resource/salarybyzip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gomes\Desktop\Project-3\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53711B86-B122-4F38-A4AA-096D9FB66553}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8618C4CB-56EF-401F-82EA-5B90BF431130}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7440" xr2:uid="{41496D94-F215-4747-AE90-B9D74F1F9E78}"/>
   </bookViews>
@@ -30,12 +30,24 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="00000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -48,6 +60,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -80,10 +99,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -91,8 +111,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -405,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC82E99-C8CA-48A1-8CA6-0E0E2395A7F7}">
-  <dimension ref="A2:B52"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -417,412 +439,573 @@
     <col min="3" max="3" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>44017</v>
       </c>
       <c r="B2">
         <v>472636000</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2" s="3">
+        <v>51429.379760609358</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>44022</v>
       </c>
       <c r="B3">
         <v>1748883000</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3" s="3">
+        <v>198061.49490373727</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>44040</v>
       </c>
       <c r="B4">
         <v>420328000</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C4" s="3">
+        <v>247251.76470588235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>44070</v>
       </c>
       <c r="B5">
         <v>906978000</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C5" s="3">
+        <v>51856.946826758147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>44102</v>
       </c>
       <c r="B6">
         <v>533650000</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C6" s="3">
+        <v>31008.13480534573</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>44103</v>
       </c>
       <c r="B7">
         <v>153913000</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C7" s="3">
+        <v>24824.677419354837</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>44104</v>
       </c>
       <c r="B8">
         <v>153786000</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C8" s="3">
+        <v>19972.207792207791</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>44105</v>
       </c>
       <c r="B9">
         <v>408957000</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C9" s="3">
+        <v>25688.253768844221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>44106</v>
       </c>
       <c r="B10">
         <v>578940000</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C10" s="3">
+        <v>64903.587443946191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>44107</v>
       </c>
       <c r="B11">
         <v>1383539000</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C11" s="3">
+        <v>49857.261261261265</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>44108</v>
       </c>
       <c r="B12">
         <v>366337000</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C12" s="3">
+        <v>36633.699999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>44109</v>
       </c>
       <c r="B13">
         <v>539914000</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C13" s="3">
+        <v>30486.391869000563</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>44110</v>
       </c>
       <c r="B14">
         <v>204169000</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C14" s="3">
+        <v>25713.9798488665</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>44111</v>
       </c>
       <c r="B15">
         <v>717883000</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C15" s="3">
+        <v>36664.09601634321</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>44112</v>
       </c>
       <c r="B16">
         <v>233832000</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C16" s="3">
+        <v>27284.947491248542</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>44113</v>
       </c>
       <c r="B17">
         <v>429954000</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C17" s="3">
+        <v>52819.901719901718</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>44114</v>
       </c>
       <c r="B18">
         <v>493685000</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C18" s="3">
+        <v>166785.47297297296</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>44115</v>
       </c>
       <c r="B19">
         <v>121854000</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C19" s="3">
+        <v>45638.20224719101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>44116</v>
       </c>
       <c r="B20">
         <v>1103429000</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C20" s="3">
+        <v>97218.414096916298</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>44117</v>
       </c>
       <c r="B21">
         <v>168802000</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C21" s="3">
+        <v>36379.741379310348</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>44118</v>
       </c>
       <c r="B22">
         <v>1265546000</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C22" s="3">
+        <v>69650.302696752886</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>44119</v>
       </c>
       <c r="B23">
         <v>246095000</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C23" s="3">
+        <v>39312.300319488815</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>44120</v>
       </c>
       <c r="B24">
         <v>944838000</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C24" s="3">
+        <v>56509.44976076555</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>44121</v>
       </c>
       <c r="B25">
         <v>745684000</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C25" s="3">
+        <v>45056.435045317223</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>44122</v>
       </c>
       <c r="B26">
         <v>1965446000</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C26" s="3">
+        <v>115072.95081967213</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>44123</v>
       </c>
       <c r="B27">
         <v>310848000</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C27" s="3">
+        <v>36271.645274212366</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>44124</v>
       </c>
       <c r="B28">
         <v>1777967000</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C28" s="3">
+        <v>84584.538534728825</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>44125</v>
       </c>
       <c r="B29">
         <v>534092000</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C29" s="3">
+        <v>37905.748757984387</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>44126</v>
       </c>
       <c r="B30">
         <v>543787000</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C30" s="3">
+        <v>58221.30620985011</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>44127</v>
       </c>
       <c r="B31">
         <v>41123000</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C31" s="3">
+        <v>21758.201058201059</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>44128</v>
       </c>
       <c r="B32">
         <v>430063000</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C32" s="3">
+        <v>30718.785714285714</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>44129</v>
       </c>
       <c r="B33">
         <v>626895000</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C33" s="3">
+        <v>41904.745989304814</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>44130</v>
       </c>
       <c r="B34">
         <v>1272284000</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C34" s="3">
+        <v>45617.92757260667</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>44131</v>
       </c>
       <c r="B35">
         <v>761193000</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C35" s="3">
+        <v>65507.142857142855</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>44132</v>
       </c>
       <c r="B36">
         <v>254821000</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C36" s="3">
+        <v>35002.884615384617</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>44133</v>
       </c>
       <c r="B37">
         <v>1080880000</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C37" s="3">
+        <v>62805.345729227192</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>44134</v>
       </c>
       <c r="B38">
         <v>871634000</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C38" s="3">
+        <v>42958.797437161164</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>44135</v>
       </c>
       <c r="B39">
         <v>446486000</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C39" s="3">
+        <v>35018.509803921566</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>44136</v>
       </c>
       <c r="B40">
         <v>933346000</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C40" s="3">
+        <v>68780.103168754606</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>44137</v>
       </c>
       <c r="B41">
         <v>386468000</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C41" s="3">
+        <v>33723.21116928447</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>44138</v>
       </c>
       <c r="B42">
         <v>716125000</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C42" s="3">
+        <v>61102.815699658706</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>44139</v>
       </c>
       <c r="B43">
         <v>1363803000</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C43" s="3">
+        <v>109984.1129032258</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>44140</v>
       </c>
       <c r="B44">
         <v>903251000</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C44" s="3">
+        <v>111650.30902348578</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>44141</v>
       </c>
       <c r="B45">
         <v>821711000</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C45" s="3">
+        <v>110296.77852348993</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>44142</v>
       </c>
       <c r="B46">
         <v>420545000</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C46" s="3">
+        <v>40869.290573372207</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>44143</v>
       </c>
       <c r="B47">
         <v>956323000</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C47" s="3">
+        <v>72393.868281604839</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>44144</v>
       </c>
       <c r="B48">
         <v>434020000</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C48" s="3">
+        <v>38340.989399293285</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>44145</v>
       </c>
       <c r="B49">
         <v>1795749000</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C49" s="3">
+        <v>101454.74576271187</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>44146</v>
       </c>
       <c r="B50">
         <v>627861000</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C50" s="3">
+        <v>39712.903225806454</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>44147</v>
       </c>
       <c r="B51">
         <v>809011000</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C51" s="3">
+        <v>78240.909090909088</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>44149</v>
       </c>
       <c r="B52">
         <v>832271000</v>
+      </c>
+      <c r="C52" s="3">
+        <v>79113.212927756656</v>
       </c>
     </row>
   </sheetData>
